--- a/biology/Botanique/Brion_(bateau)/Brion_(bateau).xlsx
+++ b/biology/Botanique/Brion_(bateau)/Brion_(bateau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le brion (ou ringeot) est la partie de la coque d'un bateau située entre l'étrave et la quille. C'est à cet endroit que se situe un éventuel bulbe d'étrave. Cette pièce est spécialement renforcée sur les brise-glace afin de soutenir les efforts induits par la navigation dans les glaces[1].
-Le brion désignait au XIVe siècle la partie basse de l'assemblage de bois formant l'étrave[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le brion (ou ringeot) est la partie de la coque d'un bateau située entre l'étrave et la quille. C'est à cet endroit que se situe un éventuel bulbe d'étrave. Cette pièce est spécialement renforcée sur les brise-glace afin de soutenir les efforts induits par la navigation dans les glaces.
+Le brion désignait au XIVe siècle la partie basse de l'assemblage de bois formant l'étrave
 Le brion est la pièce de bois qui ajuste et maintient le bas de l'étrave à la quille du bateau.
 			Louis Joseph Marie Achille Goujon, Des bois propres aux constructions navales, manuel à l'usage des agents forestiers et maritimes. Brion ou ringeot; allonge; allonge de revers
 			Nicolas Ozanne. Construction des vaisseaux. Membre du vaisseau détachés les uns des autres. I – brion ou ringeot
